--- a/csv/complaint.xlsx
+++ b/csv/complaint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BT_1N3_29\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BT_1N3_29\git\classwork\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>ACTIVE</t>
   </si>
@@ -32,12 +32,6 @@
     <t>YORK AVENUE</t>
   </si>
   <si>
-    <t>SPOPS</t>
-  </si>
-  <si>
-    <t>2014 Apr 09</t>
-  </si>
-  <si>
     <t>CLOSED</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
     <t>I2</t>
   </si>
   <si>
-    <t>2014 Apr 08</t>
-  </si>
-  <si>
     <t>ELCTR</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>2014 Mar 14</t>
+  </si>
+  <si>
+    <t>EAST 10 STREET</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>2016 Jan 26</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -218,9 +218,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -505,178 +502,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>1368980</v>
+        <v>1000320</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>32528</v>
+      </c>
+      <c r="D1" s="2">
+        <v>280</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1005909</v>
+      </c>
+      <c r="G1" s="2">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3">
+        <v>42394</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3">
+        <v>42394</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1368532</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>41730</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1305</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1045586</v>
+      </c>
+      <c r="G2" s="7">
+        <v>108</v>
+      </c>
+      <c r="H2" s="7">
+        <v>59</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8">
+        <v>41732</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>41731</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1368607</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
-        <v>41737</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1510</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1050773</v>
-      </c>
-      <c r="H1" s="2">
+      <c r="C3" s="3">
+        <v>41731</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1571</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1087330</v>
+      </c>
+      <c r="G3" s="2">
         <v>108</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="2">
-        <v>77</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1368498</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1367831</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>41718</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1275</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1087284</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="C4" s="3">
+        <v>41730</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1667</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1050591</v>
+      </c>
+      <c r="G4" s="2">
         <v>108</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3">
-        <v>41736</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="3">
-        <v>41733</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1368532</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>41730</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1305</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1045586</v>
-      </c>
-      <c r="H3" s="7">
-        <v>108</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7">
-        <v>59</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="8">
-        <v>41732</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="H4" s="2">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <v>41731</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1368607</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>41731</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1571</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1087330</v>
-      </c>
-      <c r="H4" s="2">
-        <v>108</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2">
-        <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="3">
+        <v>41731</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1368498</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>41730</v>
@@ -684,39 +681,37 @@
       <c r="D5" s="2">
         <v>1667</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1050591</v>
       </c>
       <c r="G5" s="2">
-        <v>1050591</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2">
-        <v>108</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2">
         <v>30</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>41730</v>
+      </c>
       <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3">
+        <v>41730</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3">
-        <v>41731</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3">
-        <v>41731</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1368498</v>
+        <v>1368532</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -725,319 +720,262 @@
         <v>41730</v>
       </c>
       <c r="D6" s="2">
-        <v>1667</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
+        <v>1305</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1045586</v>
       </c>
       <c r="G6" s="2">
-        <v>1050591</v>
+        <v>108</v>
       </c>
       <c r="H6" s="2">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1367632</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41716</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1385</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1045876</v>
+      </c>
+      <c r="G7" s="2">
         <v>108</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="3">
-        <v>41730</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="H7" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41725</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>41724</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5109032</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41718</v>
+      </c>
+      <c r="D8" s="2">
+        <v>342</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5110192</v>
+      </c>
+      <c r="G8" s="2">
+        <v>501</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3">
-        <v>41730</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1368532</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="J8" s="3">
+        <v>41718</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3">
+        <v>41718</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1367831</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>41730</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1305</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1045586</v>
-      </c>
-      <c r="H7" s="2">
-        <v>108</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2">
-        <v>59</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1367632</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>41716</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1385</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1045876</v>
-      </c>
-      <c r="H8" s="2">
-        <v>108</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2">
-        <v>73</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="3">
-        <v>41725</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="3">
-        <v>41724</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>5109032</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>41718</v>
       </c>
       <c r="D9" s="2">
-        <v>342</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
+        <v>1275</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1087284</v>
       </c>
       <c r="G9" s="2">
-        <v>5110192</v>
-      </c>
-      <c r="H9" s="2">
-        <v>501</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3">
-        <v>41718</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="3">
-        <v>41718</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1367831</v>
+        <v>1367632</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="D10" s="2">
-        <v>1275</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
+        <v>1385</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1045876</v>
       </c>
       <c r="G10" s="2">
-        <v>1087284</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1367544</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41714</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1045277</v>
+      </c>
+      <c r="G11" s="2">
         <v>108</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2" t="s">
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>41715</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5" t="s">
+      <c r="L11" s="3">
+        <v>41715</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1366711</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41702</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1595</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1050499</v>
+      </c>
+      <c r="G12" s="2">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>41711</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>41710</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1367632</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>41716</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1385</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1045876</v>
-      </c>
-      <c r="H11" s="2">
-        <v>108</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2">
-        <v>73</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1367544</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>41714</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1113</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1045277</v>
-      </c>
-      <c r="H12" s="2">
-        <v>108</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2">
-        <v>4</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="3">
-        <v>41715</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="3">
-        <v>41715</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>1366711</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>41702</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1595</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1050499</v>
-      </c>
-      <c r="H13" s="2">
-        <v>108</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="3">
-        <v>41711</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="3">
-        <v>41710</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
